--- a/resources/files/inflation.xlsx
+++ b/resources/files/inflation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
     <t xml:space="preserve">Évek</t>
   </si>
@@ -402,6 +402,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Vezetékes gáz, 1 m</t>
     </r>
@@ -425,6 +426,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Csempe, falburkoló, fehér és egyszínű színes, m</t>
     </r>
@@ -446,6 +448,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Laminált parketta, 7–9 mm-es (HDF vagy SPAN alapú), m</t>
     </r>
@@ -554,6 +557,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Önkormányzati összkomfortos lakás, havi bér, m</t>
     </r>
@@ -574,6 +578,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Társasház közös költsége, 50–60 m</t>
     </r>
@@ -597,6 +602,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Vízdíj, m</t>
     </r>
@@ -617,6 +623,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Csatornadíj, m</t>
     </r>
@@ -682,6 +689,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Apartman, 30–40 m</t>
     </r>
@@ -722,6 +730,12 @@
   <si>
     <t xml:space="preserve">Temetési szolgáltatás, hamvasztás, fő</t>
   </si>
+  <si>
+    <t xml:space="preserve">Euró</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usa Dollár</t>
+  </si>
 </sst>
 </file>
 
@@ -737,6 +751,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -924,16 +939,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:GB27"/>
+  <dimension ref="A1:GD27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="FV1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="GC22" activeCellId="0" sqref="GC22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1489,6 +1504,12 @@
       <c r="GB1" s="0" t="s">
         <v>183</v>
       </c>
+      <c r="GC1" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" s="0" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -4243,6 +4264,12 @@
       <c r="GB7" s="0" t="n">
         <v>45450</v>
       </c>
+      <c r="GC7" s="0" t="n">
+        <v>264</v>
+      </c>
+      <c r="GD7" s="0" t="n">
+        <v>304</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
@@ -4719,6 +4746,12 @@
       <c r="GB8" s="0" t="n">
         <v>48870</v>
       </c>
+      <c r="GC8" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="GD8" s="0" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
@@ -5204,6 +5237,12 @@
       <c r="GB9" s="0" t="n">
         <v>54250</v>
       </c>
+      <c r="GC9" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="GD9" s="0" t="n">
+        <v>259</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
@@ -5698,6 +5737,12 @@
       <c r="GB10" s="0" t="n">
         <v>59090</v>
       </c>
+      <c r="GC10" s="0" t="n">
+        <v>254</v>
+      </c>
+      <c r="GD10" s="0" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
@@ -6195,6 +6240,12 @@
       <c r="GB11" s="0" t="n">
         <v>64960</v>
       </c>
+      <c r="GC11" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="GD11" s="0" t="n">
+        <v>202</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
@@ -6692,6 +6743,12 @@
       <c r="GB12" s="0" t="n">
         <v>70220</v>
       </c>
+      <c r="GC12" s="0" t="n">
+        <v>247</v>
+      </c>
+      <c r="GD12" s="0" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
@@ -7189,6 +7246,12 @@
       <c r="GB13" s="0" t="n">
         <v>75720</v>
       </c>
+      <c r="GC13" s="0" t="n">
+        <v>264</v>
+      </c>
+      <c r="GD13" s="0" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
@@ -7695,6 +7758,12 @@
       <c r="GB14" s="0" t="n">
         <v>96340</v>
       </c>
+      <c r="GC14" s="0" t="n">
+        <v>252</v>
+      </c>
+      <c r="GD14" s="0" t="n">
+        <v>184</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
@@ -8204,6 +8273,12 @@
       <c r="GB15" s="0" t="n">
         <v>103350</v>
       </c>
+      <c r="GC15" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="GD15" s="0" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
@@ -8725,6 +8800,12 @@
       <c r="GB16" s="0" t="n">
         <v>113250</v>
       </c>
+      <c r="GC16" s="0" t="n">
+        <v>279</v>
+      </c>
+      <c r="GD16" s="0" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
@@ -9252,6 +9333,12 @@
       <c r="GB17" s="0" t="n">
         <v>120360</v>
       </c>
+      <c r="GC17" s="0" t="n">
+        <v>275</v>
+      </c>
+      <c r="GD17" s="0" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
@@ -9788,6 +9875,12 @@
       <c r="GB18" s="0" t="n">
         <v>125380</v>
       </c>
+      <c r="GC18" s="0" t="n">
+        <v>279</v>
+      </c>
+      <c r="GD18" s="0" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
@@ -10327,6 +10420,12 @@
       <c r="GB19" s="0" t="n">
         <v>134280</v>
       </c>
+      <c r="GC19" s="0" t="n">
+        <v>289</v>
+      </c>
+      <c r="GD19" s="0" t="n">
+        <v>225</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
@@ -10869,6 +10968,12 @@
       <c r="GB20" s="0" t="n">
         <v>138490</v>
       </c>
+      <c r="GC20" s="0" t="n">
+        <v>298</v>
+      </c>
+      <c r="GD20" s="0" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
@@ -11411,6 +11516,12 @@
       <c r="GB21" s="0" t="n">
         <v>140660</v>
       </c>
+      <c r="GC21" s="0" t="n">
+        <v>309</v>
+      </c>
+      <c r="GD21" s="0" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
@@ -11956,6 +12067,12 @@
       <c r="GB22" s="0" t="n">
         <v>143540</v>
       </c>
+      <c r="GC22" s="0" t="n">
+        <v>310</v>
+      </c>
+      <c r="GD22" s="0" t="n">
+        <v>279</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
@@ -12501,6 +12618,12 @@
       <c r="GB23" s="0" t="n">
         <v>146540</v>
       </c>
+      <c r="GC23" s="0" t="n">
+        <v>311</v>
+      </c>
+      <c r="GD23" s="0" t="n">
+        <v>282</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
@@ -13046,6 +13169,12 @@
       <c r="GB24" s="0" t="n">
         <v>150630</v>
       </c>
+      <c r="GC24" s="0" t="n">
+        <v>309</v>
+      </c>
+      <c r="GD24" s="0" t="n">
+        <v>274</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
@@ -13585,6 +13714,12 @@
       <c r="GB25" s="0" t="n">
         <v>160660</v>
       </c>
+      <c r="GC25" s="0" t="n">
+        <v>319</v>
+      </c>
+      <c r="GD25" s="0" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
@@ -14124,6 +14259,12 @@
       <c r="GB26" s="0" t="n">
         <v>172310</v>
       </c>
+      <c r="GC26" s="0" t="n">
+        <v>325</v>
+      </c>
+      <c r="GD26" s="0" t="n">
+        <v>291</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="n">
@@ -14665,6 +14806,12 @@
       </c>
       <c r="GB27" s="0" t="n">
         <v>187480</v>
+      </c>
+      <c r="GC27" s="0" t="n">
+        <v>351</v>
+      </c>
+      <c r="GD27" s="0" t="n">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
